--- a/formtype.xlsx
+++ b/formtype.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyproject\Surfacetest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F341C3-5087-492D-9A83-EBC5EEED706F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA55456-77A9-4882-9164-78A8B56E3819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-120" windowWidth="27630" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="2535" windowWidth="20550" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,10 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEF4=((DEF6-DEF5)&gt;&gt;18)*3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEF3=(|MOT1-MOT2+TH3-TH4|&lt;&lt;8)/(DEF4+1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +234,10 @@
   </si>
   <si>
     <t>XOR A~Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF4=((TH1-DEF6)&gt;&gt;18)*3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,20 +336,20 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -701,86 +701,86 @@
   <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+      <selection activeCell="A8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -826,267 +826,267 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="5"/>
+      <c r="V11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="6"/>
-      <c r="V11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11" s="2"/>
+      <c r="W11" s="6"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="5"/>
+      <c r="M12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="4" t="s">
+      <c r="R12" s="5"/>
+      <c r="S12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="3" t="s">
+      <c r="T12" s="5"/>
+      <c r="U12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z12" s="3" t="s">
+      <c r="X12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA12" s="3" t="s">
+      <c r="AA12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="5"/>
+      <c r="I13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="5"/>
+      <c r="S13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y13" s="3" t="s">
+      <c r="T13" s="5"/>
+      <c r="U13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Z13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" s="3" t="s">
+      <c r="AA13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>6</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>7</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>8</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="3">
         <v>9</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>10</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="3">
         <v>11</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>12</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="3">
         <v>13</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <v>14</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="3">
         <v>15</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>16</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="3">
         <v>17</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="2">
         <v>18</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="3">
         <v>19</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="2">
         <v>20</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="3">
         <v>21</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="2">
         <v>22</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="3">
         <v>23</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="2">
         <v>24</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="Z14" s="3">
         <v>25</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="2">
         <v>26</v>
       </c>
     </row>
@@ -1104,11 +1104,9 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
     <mergeCell ref="V11:W11"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
@@ -1125,9 +1123,11 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
